--- a/Data/Resultat/Essai irrigation - mesures - récolte.xlsx
+++ b/Data/Resultat/Essai irrigation - mesures - récolte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osirisagriculture-my.sharepoint.com/personal/admin_osiris-agriculture_fr1/Documents/OSIRIS/04 - Financier/03 - Financements/2 - agROBOfood - H2020 -- ACQUIS/2 - Files_for_admin/2 - Develop Phase/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pole_project\S8-Irrigation-control\Data\Resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0E2EE36D5B5C369588919ABEA55AB74770551DDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D7303-8827-4744-B0BC-0F569FCFE448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="898" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="898" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,7 +726,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -763,7 +763,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -825,7 +825,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1006,7 +1006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470675176"/>
@@ -1065,7 +1065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470673536"/>
@@ -1106,7 +1106,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1120,7 +1120,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1157,7 +1157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1219,7 +1219,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1448,7 +1448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="461953624"/>
@@ -1507,7 +1507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="461954936"/>
@@ -1548,7 +1548,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1562,7 +1562,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1599,7 +1599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1661,7 +1661,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1890,7 +1890,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="463123152"/>
@@ -1949,7 +1949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="463122824"/>
@@ -1990,7 +1990,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2004,7 +2004,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2066,7 +2066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2128,7 +2128,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2275,7 +2275,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2403,7 +2403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24892362-771C-4032-92BF-DBF7856A894A}" type="CELLRANGE">
+                    <a:fld id="{AD936D25-68BA-4D20-BB42-5D086E4FB933}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2412,10 +2412,10 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{9D893E53-BCDD-41F1-81E4-68B418056040}" type="VALUE">
+                    <a:fld id="{95455020-C836-4B65-A93B-EC567B3C22E5}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2445,21 +2445,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{374C9D01-1848-4CC5-9E3E-6B6BC90DAF52}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{AC5B2CB6-93F6-4BDC-BA3E-C9B0F596CD24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{5393D1E5-9AB4-407A-84C2-1EB64BC84154}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{E7879D73-9191-4197-A41F-D0579F09B4FD}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2473,6 +2473,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2487,21 +2488,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A289D27-689A-4581-ADFB-21DE47D78B2F}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{DFB194D2-A48C-4F8B-BAFE-8D488E98794C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{72A825A3-AAC7-4A7A-9378-C128B038EA81}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{CFF532A6-1233-43FB-8D22-8F5D8ED3C4EE}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2515,6 +2516,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2529,21 +2531,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEDA88FC-1679-41B1-BA61-9D9766AFC876}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{B4C35091-F471-475B-B234-CC5310FA8CEB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{2BF42B58-76A4-49D4-A4D3-C3744167C7F0}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{BC63B94E-368D-46FA-9559-56252A1CA723}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2557,6 +2559,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2571,21 +2574,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F059C94-70EB-47AB-AF7E-07629F8A2BB7}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{76982394-A916-4A1E-BE46-8DB636AB8316}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{B021BE33-3F62-43AC-8466-2C9F0EECA3FA}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{4B7636C5-7A06-4B4F-90F1-3AC003D71924}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2599,6 +2602,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2613,21 +2617,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC1D2C58-006C-4788-8665-F582B1423ACC}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{54EBAE0D-F8C8-4DF9-B689-AE350DAE9B90}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{32E44F04-94A6-4558-8D60-430182C76652}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{4124E1C4-4C1C-4337-8187-40BE0C8061BA}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2641,6 +2645,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2655,21 +2660,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5015E3FB-506A-4017-A8A5-DE68A9E84949}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{9DE53A5D-E548-4DB2-870E-4949379F96D9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{058C4893-CEB8-4445-8734-2ABC13991867}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{F8B4DB5A-8407-4C2D-A159-5368B7A529D0}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2683,6 +2688,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2716,7 +2722,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2878,7 +2884,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3018,7 +3024,7 @@
                     <a:fld id="{C2099632-5F76-4420-8D81-881ACC952D23}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3060,7 +3066,7 @@
                     <a:fld id="{28A984BB-7B73-4FCE-8DD8-A88F649856A1}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3102,7 +3108,7 @@
                     <a:fld id="{45365E81-D753-42CB-88A7-D71EFCA22A4C}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3144,7 +3150,7 @@
                     <a:fld id="{2FCA5A26-6131-450A-88E1-EA57334DD78D}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3186,7 +3192,7 @@
                     <a:fld id="{D3997340-ADDC-4C72-AE88-DB7D8FA6565E}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3216,21 +3222,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB4CA21D-2231-4B3C-888F-59954F96CAA7}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{9533C30F-7732-47A2-B55C-BC3063AC3952}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C2F6DCC3-9E40-442B-BF88-D36C3A7CE7E4}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{8B9D1227-4E1B-4DBB-93FD-CDE3FC20E4BE}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3258,21 +3264,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAF55E2A-CF71-4C35-A0A9-B59EAF2A9E5C}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{4551D20E-DD66-44B1-8569-2A9D78DD61B7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{3ADC4953-D0BF-4BEC-A96F-AD22481B7739}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{8BFDB338-3A8E-4BF0-8052-766AB1BB5012}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3286,6 +3292,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3319,7 +3326,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3485,7 +3492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="373769472"/>
@@ -3544,7 +3551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="373770456"/>
@@ -3586,7 +3593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3616,7 +3623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3630,7 +3637,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3667,7 +3674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3710,21 +3717,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52B1C7F3-5DC4-46EC-8A1F-B6255BA9CEE5}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{82C7BF44-4183-43CC-B164-42C523239181}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{335E55B8-D839-46E1-93D0-94E3CD115CEA}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{F53E17CF-F2E9-467A-8AF5-94456923C26B}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3752,21 +3759,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FEAFEDD7-CBCB-45E3-AAAE-6971E0651EF3}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{69658868-2F24-4734-B9C8-153AED6B1840}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{E4BD9469-CB28-40D6-9925-564C2937E184}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{904C069C-5551-4B8A-B66D-F25336CE2426}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3780,6 +3787,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3794,21 +3802,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E2ECD21-C81C-495D-AE8D-7A6FC6B26C08}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{844FD3F9-69FE-4CBD-A108-928EDD59ED99}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{ED2D2DA9-06CE-47EA-99BF-D855AF20856B}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{2D7FF7D4-57E9-48F9-B187-8C65E92F5470}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3822,6 +3830,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3836,21 +3845,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48189E2F-1C97-417D-AD11-F5A32990EBFE}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{152B516E-68C0-4681-8573-54602CFEED57}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{0C49E6C7-D7AA-4CF6-A5F6-B78225B6265B}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{E24B9AED-EF46-4B23-8CBF-A0E1895F2641}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3864,6 +3873,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3878,21 +3888,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9A3125A-59A1-49E0-9273-339CADD0DF79}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{73368851-ED48-48D7-8BC6-29D739CEF625}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{1CBA7CC5-FD33-467F-B2D1-F3C53E19B5CE}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{9C04332B-0369-44EA-9560-72A327F7FCF6}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3906,6 +3916,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3923,9 +3934,9 @@
                     <a:fld id="{437207D0-4FF8-46D3-8EB4-8F8CF60F0D64}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3956,9 +3967,9 @@
                     <a:fld id="{41358841-E48F-4A0B-864A-22967D6E34BF}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4005,7 +4016,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4258,7 +4269,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376106440"/>
@@ -4317,7 +4328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376110704"/>
@@ -4358,7 +4369,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4372,7 +4383,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4434,7 +4445,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4466,21 +4477,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D24A57D-37D0-4867-B330-0A39EE92D902}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{A2F24AEC-850C-4FD7-8920-157C24E3E68A}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C6061C35-E558-4A8E-99A5-8C9D74A3A888}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{B96F78EB-837A-49B2-A6A6-B9ADDB165C51}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4508,21 +4519,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E0CB4E1-EA73-4E0E-9851-A0BA3E0ABCA1}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{EBF12A47-43AC-426B-9532-ECAF79A04998}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{75D15369-1A58-4578-8C09-D4FCE3570749}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{F44B85CC-BDD9-41C2-B5BB-8D513670EC61}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4536,6 +4547,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4550,21 +4562,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{023C7418-74D4-4A7C-B4EB-AB8C9CC494D7}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{D4521AB1-F2DB-4111-A60E-310200F9A830}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C3C89072-9DF4-4825-B79E-C13ABE8E3148}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{560D8853-D6DD-46C3-8070-1841C017B4DA}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4578,6 +4590,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4592,21 +4605,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BFB2253-8551-4AA1-96B8-2E402E555F0A}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{5010E34F-2599-4862-9417-1B1907D6834A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{80CBC363-B669-477C-849F-96E6B4B84404}" type="VALUE">
-                      <a:rPr lang="fr-FR" baseline="0"/>
+                    <a:fld id="{D566EEBE-6566-4793-B3FD-87E5D3C8C32F}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALOR]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fr-FR" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4620,6 +4633,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4653,7 +4667,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4867,7 +4881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="384446800"/>
@@ -4926,7 +4940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="384454016"/>
@@ -4967,7 +4981,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10120,22 +10134,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Q10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="16" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="16" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -10154,7 +10168,7 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -10173,7 +10187,7 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -10202,7 +10216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -10239,7 +10253,7 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25" t="s">
@@ -10276,7 +10290,7 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="28" t="s">
         <v>37</v>
@@ -10313,7 +10327,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="28"/>
       <c r="C8" s="25" t="s">
@@ -10348,7 +10362,7 @@
       </c>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25" t="s">
@@ -10369,7 +10383,7 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -10388,17 +10402,17 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="6">
         <v>44722</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>1</v>
       </c>
@@ -10406,7 +10420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>1</v>
       </c>
@@ -10417,7 +10431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>0.75</v>
       </c>
@@ -10428,7 +10442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>1.25</v>
       </c>
@@ -10436,7 +10450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>0.5</v>
       </c>
@@ -10444,7 +10458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>0.25</v>
       </c>
@@ -10452,7 +10466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>1</v>
       </c>
@@ -10460,7 +10474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>0</v>
       </c>
@@ -10468,7 +10482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>2</v>
       </c>
@@ -10476,7 +10490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>1</v>
       </c>
@@ -10484,7 +10498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>1</v>
       </c>
@@ -10492,7 +10506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>1.5</v>
       </c>
@@ -10526,13 +10540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D3:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="M3" s="32" t="s">
         <v>66</v>
       </c>
@@ -10541,7 +10555,7 @@
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>67</v>
       </c>
@@ -10579,7 +10593,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>100</v>
       </c>
@@ -10623,7 +10637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>100</v>
       </c>
@@ -10667,7 +10681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>100</v>
       </c>
@@ -10711,7 +10725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>100</v>
       </c>
@@ -10755,7 +10769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>100</v>
       </c>
@@ -10799,7 +10813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>100</v>
       </c>
@@ -10843,7 +10857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>100</v>
       </c>
@@ -10887,7 +10901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>100</v>
       </c>
@@ -10931,7 +10945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>100</v>
       </c>
@@ -10975,7 +10989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>100</v>
       </c>
@@ -11019,7 +11033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>100</v>
       </c>
@@ -11063,7 +11077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>100</v>
       </c>
@@ -11107,7 +11121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -11151,7 +11165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -11195,7 +11209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -11239,7 +11253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -11283,7 +11297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -11327,7 +11341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -11371,7 +11385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -11459,7 +11473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>4</v>
       </c>
@@ -11503,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>4</v>
       </c>
@@ -11547,7 +11561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -11591,7 +11605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>4</v>
       </c>
@@ -11635,7 +11649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -11679,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>4</v>
       </c>
@@ -11723,7 +11737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>4</v>
       </c>
@@ -11767,7 +11781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -11811,7 +11825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>4</v>
       </c>
@@ -11855,7 +11869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>4</v>
       </c>
@@ -11899,7 +11913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>0</v>
       </c>
@@ -11943,7 +11957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>0</v>
       </c>
@@ -11987,7 +12001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>0</v>
       </c>
@@ -12043,19 +12057,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="E3:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>90</v>
       </c>
@@ -12102,7 +12116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>51.044973544973537</v>
       </c>
@@ -12153,7 +12167,7 @@
         <v>35.801033591731269</v>
       </c>
     </row>
-    <row r="5" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>51.829268292682926</v>
       </c>
@@ -12204,7 +12218,7 @@
         <v>40.375</v>
       </c>
     </row>
-    <row r="6" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>53.743386243386233</v>
       </c>
@@ -12255,7 +12269,7 @@
         <v>42.384823848238483</v>
       </c>
     </row>
-    <row r="7" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>45.097222222222229</v>
       </c>
@@ -12269,7 +12283,7 @@
         <v>55.013888888888893</v>
       </c>
     </row>
-    <row r="8" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>53.293650793650784</v>
       </c>
@@ -12302,7 +12316,7 @@
         <v>40.200316169828369</v>
       </c>
     </row>
-    <row r="9" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>46.973684210526315</v>
       </c>
@@ -12335,7 +12349,7 @@
         <v>0.99172507793857556</v>
       </c>
     </row>
-    <row r="10" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>50.701754385964911</v>
       </c>
@@ -12364,7 +12378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>53.372093023255815</v>
       </c>
@@ -12378,7 +12392,7 @@
         <v>0.50760000000000005</v>
       </c>
     </row>
-    <row r="12" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>55.129198966408275</v>
       </c>
@@ -12392,7 +12406,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="13" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>55.013888888888893</v>
       </c>
@@ -12400,7 +12414,7 @@
         <v>55.013888888888893</v>
       </c>
     </row>
-    <row r="14" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>58.863049095607238</v>
       </c>
@@ -12408,7 +12422,7 @@
         <v>58.863049095607238</v>
       </c>
     </row>
-    <row r="15" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>54.777777777777771</v>
       </c>
@@ -12422,7 +12436,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:26" x14ac:dyDescent="0.3">
       <c r="M16">
         <f>AVERAGE(M4:M9)</f>
         <v>50.330364217907004</v>
@@ -12447,7 +12461,7 @@
         <v>342.79999999999973</v>
       </c>
     </row>
-    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R17" t="s">
         <v>93</v>
       </c>
@@ -12464,7 +12478,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:25" x14ac:dyDescent="0.3">
       <c r="F18">
         <f>_xlfn.STDEV.S(F4:F6)</f>
         <v>1.3880680141503663</v>
@@ -12497,7 +12511,7 @@
         <v>383.59999999999985</v>
       </c>
     </row>
-    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>95</v>
       </c>
@@ -12514,7 +12528,7 @@
         <v>394.39999999999975</v>
       </c>
     </row>
-    <row r="20" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:25" x14ac:dyDescent="0.3">
       <c r="X20" t="s">
         <v>73</v>
       </c>
@@ -12522,7 +12536,7 @@
         <v>328.99999999999977</v>
       </c>
     </row>
-    <row r="21" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:25" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>86</v>
       </c>
@@ -12542,7 +12556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>86</v>
       </c>
@@ -12574,7 +12588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>87</v>
       </c>
@@ -12606,7 +12620,7 @@
         <v>1.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>88</v>
       </c>
@@ -12632,7 +12646,7 @@
         <v>4.8349999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>89</v>
       </c>
@@ -12658,7 +12672,7 @@
         <v>2.2950000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>95</v>
       </c>
@@ -12672,7 +12686,7 @@
         <v>9.3970000000000002</v>
       </c>
     </row>
-    <row r="27" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:25" x14ac:dyDescent="0.3">
       <c r="S27" t="s">
         <v>132</v>
       </c>
@@ -12686,7 +12700,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>93</v>
       </c>
@@ -12694,7 +12708,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R30">
         <v>52.750677506775077</v>
       </c>
@@ -12702,7 +12716,7 @@
         <v>45.432968373859843</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R31">
         <v>47.441860465116285</v>
       </c>
@@ -12710,7 +12724,7 @@
         <v>43.789241622574956</v>
       </c>
     </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:25" x14ac:dyDescent="0.3">
       <c r="R32">
         <v>52.690058479532176</v>
       </c>
@@ -12718,7 +12732,7 @@
         <v>46.147244805781405</v>
       </c>
     </row>
-    <row r="35" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:20" x14ac:dyDescent="0.3">
       <c r="S35" t="s">
         <v>93</v>
       </c>
@@ -12726,7 +12740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R36" t="s">
         <v>93</v>
       </c>
@@ -12734,7 +12748,7 @@
         <v>3.4509999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R37" t="s">
         <v>135</v>
       </c>
@@ -12752,32 +12766,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>47</v>
@@ -12804,7 +12818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
@@ -12837,7 +12851,7 @@
         <v>1.1283999999999998</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
@@ -12870,7 +12884,7 @@
         <v>1.3420000000000001</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -12881,7 +12895,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
@@ -12914,7 +12928,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
@@ -12947,7 +12961,7 @@
         <v>1.5454000000000001</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -12958,7 +12972,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -12991,7 +13005,7 @@
         <v>1.3564000000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -13024,7 +13038,7 @@
         <v>1.3358000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -13035,7 +13049,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -13068,7 +13082,7 @@
         <v>1.3592</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
@@ -13101,7 +13115,7 @@
         <v>1.4298</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -13121,18 +13135,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>131</v>
       </c>
@@ -13143,7 +13157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>77</v>
       </c>
@@ -13170,7 +13184,7 @@
         <v>29.881900876617458</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>79</v>
       </c>
@@ -13189,7 +13203,7 @@
         <v>-63.000000000000284</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>80</v>
       </c>
@@ -13208,7 +13222,7 @@
         <v>-37.600000000000193</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -13227,7 +13241,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>81</v>
       </c>
@@ -13246,7 +13260,7 @@
         <v>-3.2000000000002728</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>78</v>
       </c>
@@ -13265,7 +13279,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -13292,7 +13306,7 @@
         <v>7.6367532368146414</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>128</v>
       </c>
@@ -13315,7 +13329,7 @@
         <v>18.878810432433585</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -13342,7 +13356,7 @@
         <v>30.12086762805253</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>74</v>
       </c>
@@ -13361,7 +13375,7 @@
         <v>-15.200000000000273</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -13380,7 +13394,7 @@
         <v>-43.800000000000239</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>76</v>
       </c>
@@ -13409,24 +13423,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="21" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="21" width="7.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L3" s="32" t="s">
         <v>66</v>
       </c>
@@ -13442,7 +13456,7 @@
       <c r="T3" s="32"/>
       <c r="U3" s="32"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
@@ -13501,7 +13515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -13569,7 +13583,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>8</v>
       </c>
@@ -13631,7 +13645,7 @@
         <v>41343.669250645995</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>8</v>
       </c>
@@ -13694,7 +13708,7 @@
         <v>40935.672514619881</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I5:I7)</f>
         <v>50.960865483807851</v>
@@ -13752,7 +13766,7 @@
         <v>40073.240389686638</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -13820,7 +13834,7 @@
         <v>40935.672514619881</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>3</v>
       </c>
@@ -13882,7 +13896,7 @@
         <v>41343.669250645995</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -13944,7 +13958,7 @@
         <v>41343.669250645995</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I12" s="7">
         <f>AVERAGE(I9:I11)</f>
         <v>53.067682125209664</v>
@@ -14002,7 +14016,7 @@
         <v>41207.67033863729</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -14070,7 +14084,7 @@
         <v>33333.333333333336</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>15</v>
       </c>
@@ -14132,7 +14146,7 @@
         <v>41343.669250645995</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>15</v>
       </c>
@@ -14194,7 +14208,7 @@
         <v>38888.888888888891</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I16" s="7">
         <f>AVERAGE(I13:I15)</f>
         <v>56.218238587424629</v>
@@ -14252,7 +14266,7 @@
         <v>37855.297157622743</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -14320,7 +14334,7 @@
         <v>31007.751937984496</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>4</v>
       </c>
@@ -14382,7 +14396,7 @@
         <v>31007.751937984496</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>4</v>
       </c>
@@ -14444,7 +14458,7 @@
         <v>35087.719298245611</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I20" s="7">
         <f>AVERAGE(I17:I19)</f>
         <v>41.52896776825785</v>
@@ -14502,7 +14516,7 @@
         <v>32367.741058071533</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -14570,7 +14584,7 @@
         <v>37037.037037037036</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>11</v>
       </c>
@@ -14632,7 +14646,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>11</v>
       </c>
@@ -14694,7 +14708,7 @@
         <v>37037.037037037036</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I24" s="7">
         <f>AVERAGE(I21:I23)</f>
         <v>52.205876027014227</v>
@@ -14752,7 +14766,7 @@
         <v>37338.151159289373</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -14820,7 +14834,7 @@
         <v>38888.888888888891</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>62</v>
       </c>
@@ -14882,7 +14896,7 @@
         <v>42328.042328042327</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>62</v>
       </c>
@@ -14944,7 +14958,7 @@
         <v>35087.719298245611</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I28" s="7">
         <f>AVERAGE(I25:I27)</f>
         <v>48.454852408799773</v>
@@ -15002,7 +15016,7 @@
         <v>38768.216838392276</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>80</v>
       </c>
@@ -15070,7 +15084,7 @@
         <v>36175.710594315242</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
         <v>10</v>
       </c>
@@ -15132,7 +15146,7 @@
         <v>37037.037037037036</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
         <v>10</v>
       </c>
@@ -15194,7 +15208,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I32" s="7">
         <f>AVERAGE(I29:I31)</f>
         <v>45.286888730828991</v>
@@ -15252,7 +15266,7 @@
         <v>37051.042345048772</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>82</v>
       </c>
@@ -15320,7 +15334,7 @@
         <v>39886.039886039885</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>23</v>
       </c>
@@ -15382,7 +15396,7 @@
         <v>38888.888888888891</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>23</v>
       </c>
@@ -15444,7 +15458,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I36" s="7">
         <f>AVERAGE(I33:I35)</f>
         <v>49.882249901558851</v>
@@ -15502,7 +15516,7 @@
         <v>38905.102726240941</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>81</v>
       </c>
@@ -15571,7 +15585,7 @@
         <v>38888.888888888891</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>2</v>
       </c>
@@ -15633,7 +15647,7 @@
         <v>38888.888888888891</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>2</v>
       </c>
@@ -15695,7 +15709,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I40" s="7">
         <f>AVERAGE(I37:I39)</f>
         <v>40.200316169828369</v>
@@ -15753,7 +15767,7 @@
         <v>38572.719060523938</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -15821,7 +15835,7 @@
         <v>31007.751937984496</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>18</v>
       </c>
@@ -15883,7 +15897,7 @@
         <v>33333.333333333336</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>18</v>
       </c>
@@ -15945,7 +15959,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I44" s="7">
         <f>AVERAGE(I41:I43)</f>
         <v>39.520285813323248</v>
@@ -16003,7 +16017,7 @@
         <v>34093.821558370626</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>83</v>
       </c>
@@ -16071,7 +16085,7 @@
         <v>38888.888888888891</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>6</v>
       </c>
@@ -16133,7 +16147,7 @@
         <v>36175.710594315242</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -16195,7 +16209,7 @@
         <v>37940.379403794039</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I48" s="7">
         <f>AVERAGE(I45:I47)</f>
         <v>55.029334992962333</v>
@@ -16253,7 +16267,7 @@
         <v>37668.326295666055</v>
       </c>
     </row>
-    <row r="49" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:21" x14ac:dyDescent="0.3">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -16268,7 +16282,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="51" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:21" x14ac:dyDescent="0.3">
       <c r="L51" s="1" t="s">
         <v>66</v>
       </c>
@@ -16276,7 +16290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I52" s="1" t="s">
         <v>71</v>
       </c>
@@ -16317,7 +16331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F53" s="1" t="s">
         <v>73</v>
       </c>
@@ -16364,7 +16378,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="54" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F54" s="1" t="s">
         <v>74</v>
       </c>
@@ -16411,7 +16425,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="55" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F55" s="1" t="s">
         <v>75</v>
       </c>
@@ -16458,7 +16472,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="56" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F56" s="1" t="s">
         <v>76</v>
       </c>
@@ -16505,7 +16519,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="57" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F57" s="1" t="s">
         <v>77</v>
       </c>
@@ -16552,7 +16566,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="58" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F58" s="1" t="s">
         <v>79</v>
       </c>
@@ -16599,7 +16613,7 @@
         <v>2.7333333333333329</v>
       </c>
     </row>
-    <row r="59" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F59" s="1" t="s">
         <v>80</v>
       </c>
@@ -16646,7 +16660,7 @@
         <v>0.98333333333333328</v>
       </c>
     </row>
-    <row r="60" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F60" s="1" t="s">
         <v>82</v>
       </c>
@@ -16693,7 +16707,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="61" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F61" s="1" t="s">
         <v>81</v>
       </c>
@@ -16740,7 +16754,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="62" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F62" s="1" t="s">
         <v>78</v>
       </c>
@@ -16787,7 +16801,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="63" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F63" s="1" t="s">
         <v>83</v>
       </c>
@@ -16834,7 +16848,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.3">
       <c r="H66" s="1" t="s">
         <v>71</v>
       </c>
@@ -16845,7 +16859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G67" s="1" t="s">
         <v>84</v>
       </c>
@@ -16862,7 +16876,7 @@
         <v>23.675000000000001</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G68" s="1" t="s">
         <v>2</v>
       </c>
@@ -16879,7 +16893,7 @@
         <v>22.433333333333334</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G69" s="1" t="s">
         <v>3</v>
       </c>
@@ -16896,7 +16910,7 @@
         <v>24.033333333333335</v>
       </c>
     </row>
-    <row r="70" spans="7:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G70" s="8" t="s">
         <v>85</v>
       </c>
@@ -16918,17 +16932,17 @@
   <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>105</v>
       </c>
@@ -16939,7 +16953,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -16950,7 +16964,7 @@
         <v>1.1097458933073734</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -16961,7 +16975,7 @@
         <v>0.62182527020607703</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -16972,7 +16986,7 @@
         <v>0.83632795268636462</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
@@ -16983,7 +16997,7 @@
         <v>0.40414518843283553</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -16994,7 +17008,7 @@
         <v>0.41633319989317374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -17005,7 +17019,7 @@
         <v>0.41633319989317374</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
@@ -17016,7 +17030,7 @@
         <v>1.0448647875407979</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
@@ -17027,7 +17041,7 @@
         <v>0.90645830939245309</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
@@ -17038,7 +17052,7 @@
         <v>0.46188021535161367</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
@@ -17049,7 +17063,7 @@
         <v>0.32145502536628567</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>106</v>
       </c>
@@ -17069,20 +17083,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -17117,7 +17131,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -17152,7 +17166,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -17187,7 +17201,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -17222,7 +17236,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -17242,7 +17256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -17262,7 +17276,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -17282,7 +17296,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -17308,7 +17322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -17334,7 +17348,7 @@
         <v>0.64090000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -17366,7 +17380,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -17398,7 +17412,7 @@
         <v>0.72350000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -17430,7 +17444,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -17444,7 +17458,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -17464,7 +17478,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -17484,7 +17498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -17504,7 +17518,7 @@
         <v>10.666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -17524,7 +17538,7 @@
         <v>10.571428571428571</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -17538,7 +17552,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -17558,7 +17572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -17578,7 +17592,7 @@
         <v>0.1648</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -17598,7 +17612,7 @@
         <v>3.0369999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -17612,7 +17626,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -17629,7 +17643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -17652,7 +17666,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -17675,7 +17689,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -17698,7 +17712,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -17721,7 +17735,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -17735,7 +17749,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -17773,7 +17787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -17812,7 +17826,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -17851,7 +17865,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -17890,7 +17904,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -17904,7 +17918,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -17930,7 +17944,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>99</v>
       </c>
@@ -17944,7 +17958,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>94</v>
       </c>
@@ -17958,7 +17972,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>95</v>
       </c>
@@ -17972,7 +17986,7 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
         <v>115</v>
       </c>
@@ -17992,7 +18006,7 @@
         <v>0.1343</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I39">
         <v>24</v>
       </c>
@@ -18000,7 +18014,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I40">
         <v>24.5</v>
       </c>
@@ -18008,7 +18022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>24.8</v>
       </c>
@@ -18028,7 +18042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>122</v>
       </c>
@@ -18042,7 +18056,7 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>115</v>
       </c>
@@ -18062,7 +18076,7 @@
         <v>1.6660000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H44" t="s">
         <v>115</v>
       </c>
@@ -18082,7 +18096,7 @@
         <v>1.6660000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>118</v>
       </c>
@@ -18102,7 +18116,7 @@
         <v>6.3140000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
         <v>139</v>
       </c>
@@ -18122,7 +18136,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="14" t="s">
         <v>113</v>
       </c>
@@ -18143,7 +18157,7 @@
         <v>0.62182527020607703</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="14" t="s">
         <v>127</v>
       </c>
@@ -18163,7 +18177,7 @@
         <v>0.41633319989317374</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="14" t="s">
         <v>116</v>
       </c>
@@ -18183,7 +18197,7 @@
         <v>0.90645830939245309</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="14" t="s">
         <v>114</v>
       </c>
@@ -18203,7 +18217,7 @@
         <v>0.83632795268636462</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" s="14" t="s">
         <v>117</v>
       </c>
@@ -18223,7 +18237,7 @@
         <v>0.46188021535161367</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" s="14" t="s">
         <v>115</v>
       </c>
@@ -18243,7 +18257,7 @@
         <v>0.40414518843283553</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
         <v>118</v>
       </c>
@@ -18277,16 +18291,16 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>105</v>
       </c>
@@ -18312,7 +18326,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -18338,7 +18352,7 @@
         <v>5.4525462062912906</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -18364,7 +18378,7 @@
         <v>3.9488065830301986</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -18390,7 +18404,7 @@
         <v>4.4685150704645045</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
@@ -18416,7 +18430,7 @@
         <v>3.2149567192826711</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -18442,7 +18456,7 @@
         <v>10.862114399862264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -18468,7 +18482,7 @@
         <v>10.862114399862264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
@@ -18494,7 +18508,7 @@
         <v>6.018022015161244</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
@@ -18520,7 +18534,7 @@
         <v>2.6418223944355259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
@@ -18546,7 +18560,7 @@
         <v>3.0624214062805248</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
@@ -18572,7 +18586,7 @@
         <v>1.9925253636600226</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>106</v>
       </c>
@@ -18611,13 +18625,13 @@
       <selection activeCell="A4" sqref="A4:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>105</v>
       </c>
@@ -18625,7 +18639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -18633,7 +18647,7 @@
         <v>5.3847022662625266</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -18641,7 +18655,7 @@
         <v>3.5168236353575701</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -18649,7 +18663,7 @@
         <v>4.5140749060799372</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
@@ -18657,7 +18671,7 @@
         <v>3.3740888831060309</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -18665,7 +18679,7 @@
         <v>11.106383286657323</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -18673,7 +18687,7 @@
         <v>11.106383286657323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
@@ -18681,7 +18695,7 @@
         <v>6.0604043040456208</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
@@ -18689,7 +18703,7 @@
         <v>2.658930196369143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
@@ -18697,7 +18711,7 @@
         <v>3.0476984607729274</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
@@ -18705,7 +18719,7 @@
         <v>1.5913148006957953</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>106</v>
       </c>
@@ -18722,18 +18736,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D2:AH118"/>
   <sheetViews>
-    <sheetView topLeftCell="E88" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="10" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:25" x14ac:dyDescent="0.3">
       <c r="M2" s="32" t="s">
         <v>59</v>
       </c>
@@ -18749,7 +18763,7 @@
       <c r="V2" s="32"/>
       <c r="W2" s="32"/>
     </row>
-    <row r="3" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>104</v>
       </c>
@@ -18814,7 +18828,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>100</v>
       </c>
@@ -18886,7 +18900,7 @@
         <v>51.138211382113823</v>
       </c>
     </row>
-    <row r="5" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>100</v>
       </c>
@@ -18958,7 +18972,7 @@
         <v>46.782945736434101</v>
       </c>
     </row>
-    <row r="6" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>100</v>
       </c>
@@ -19030,7 +19044,7 @@
         <v>52.690058479532162</v>
       </c>
     </row>
-    <row r="7" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>100</v>
       </c>
@@ -19102,7 +19116,7 @@
         <v>50.204678362573091</v>
       </c>
     </row>
-    <row r="8" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>100</v>
       </c>
@@ -19174,7 +19188,7 @@
         <v>52.713178294573638</v>
       </c>
     </row>
-    <row r="9" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>100</v>
       </c>
@@ -19246,7 +19260,7 @@
         <v>54.689922480620162</v>
       </c>
     </row>
-    <row r="10" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>100</v>
       </c>
@@ -19318,7 +19332,7 @@
         <v>54.541666666666671</v>
       </c>
     </row>
-    <row r="11" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>100</v>
       </c>
@@ -19390,7 +19404,7 @@
         <v>58.204134366925068</v>
       </c>
     </row>
-    <row r="12" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>100</v>
       </c>
@@ -19462,7 +19476,7 @@
         <v>54.777777777777771</v>
       </c>
     </row>
-    <row r="13" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>100</v>
       </c>
@@ -19534,7 +19548,7 @@
         <v>43.049095607235145</v>
       </c>
     </row>
-    <row r="14" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>100</v>
       </c>
@@ -19606,7 +19620,7 @@
         <v>39.095607235142111</v>
       </c>
     </row>
-    <row r="15" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>100</v>
       </c>
@@ -19678,7 +19692,7 @@
         <v>41.505847953216367</v>
       </c>
     </row>
-    <row r="16" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -19750,7 +19764,7 @@
         <v>50.370370370370367</v>
       </c>
     </row>
-    <row r="17" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -19822,7 +19836,7 @@
         <v>51.368563685636857</v>
       </c>
     </row>
-    <row r="18" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -19894,7 +19908,7 @@
         <v>53.293650793650791</v>
       </c>
     </row>
-    <row r="19" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -19966,7 +19980,7 @@
         <v>43.916666666666671</v>
       </c>
     </row>
-    <row r="20" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -20038,7 +20052,7 @@
         <v>53.968253968253968</v>
       </c>
     </row>
-    <row r="21" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -20110,7 +20124,7 @@
         <v>46.476608187134502</v>
       </c>
     </row>
-    <row r="22" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -20182,7 +20196,7 @@
         <v>44.366925064599478</v>
       </c>
     </row>
-    <row r="23" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -20254,7 +20268,7 @@
         <v>44.74867724867724</v>
       </c>
     </row>
-    <row r="24" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -20326,7 +20340,7 @@
         <v>46.531165311653112</v>
       </c>
     </row>
-    <row r="25" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>4</v>
       </c>
@@ -20398,7 +20412,7 @@
         <v>50.128205128205138</v>
       </c>
     </row>
-    <row r="26" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>4</v>
       </c>
@@ -20470,7 +20484,7 @@
         <v>45.333333333333336</v>
       </c>
     </row>
-    <row r="27" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -20542,7 +20556,7 @@
         <v>51.598915989159892</v>
       </c>
     </row>
-    <row r="28" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>4</v>
       </c>
@@ -20614,7 +20628,7 @@
         <v>41.319444444444443</v>
       </c>
     </row>
-    <row r="29" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -20686,7 +20700,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="30" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>4</v>
       </c>
@@ -20758,7 +20772,7 @@
         <v>39.620596205962059</v>
       </c>
     </row>
-    <row r="31" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>4</v>
       </c>
@@ -20833,7 +20847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -20917,7 +20931,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>4</v>
       </c>
@@ -21001,7 +21015,7 @@
         <v>1.1140000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>0</v>
       </c>
@@ -21085,7 +21099,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>0</v>
       </c>
@@ -21163,7 +21177,7 @@
         <v>20.054200542005422</v>
       </c>
     </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>0</v>
       </c>
@@ -21235,7 +21249,7 @@
         <v>54.132791327913282</v>
       </c>
     </row>
-    <row r="39" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:34" x14ac:dyDescent="0.3">
       <c r="U39" t="s">
         <v>64</v>
       </c>
@@ -21246,7 +21260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J40" t="s">
         <v>104</v>
       </c>
@@ -21299,7 +21313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J41" t="s">
         <v>100</v>
       </c>
@@ -21352,7 +21366,7 @@
         <v>0.64159999999999995</v>
       </c>
     </row>
-    <row r="42" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J42" t="s">
         <v>100</v>
       </c>
@@ -21405,7 +21419,7 @@
         <v>0.76790000000000003</v>
       </c>
     </row>
-    <row r="43" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J43" t="s">
         <v>100</v>
       </c>
@@ -21456,7 +21470,7 @@
         <v>21.95121951219512</v>
       </c>
     </row>
-    <row r="44" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J44" t="s">
         <v>100</v>
       </c>
@@ -21494,7 +21508,7 @@
         <v>31.054131054131059</v>
       </c>
     </row>
-    <row r="45" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J45" t="s">
         <v>100</v>
       </c>
@@ -21535,7 +21549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J46" t="s">
         <v>100</v>
       </c>
@@ -21588,7 +21602,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J47" t="s">
         <v>100</v>
       </c>
@@ -21632,7 +21646,7 @@
         <v>2.7140000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:34" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
         <v>100</v>
       </c>
@@ -21685,7 +21699,7 @@
         <v>8.391</v>
       </c>
     </row>
-    <row r="49" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J49" t="s">
         <v>100</v>
       </c>
@@ -21729,7 +21743,7 @@
         <v>2.7100271002710032</v>
       </c>
     </row>
-    <row r="50" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J50" t="s">
         <v>100</v>
       </c>
@@ -21764,7 +21778,7 @@
         <v>2.8610000000000002</v>
       </c>
     </row>
-    <row r="51" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J51" t="s">
         <v>100</v>
       </c>
@@ -21799,7 +21813,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J52" t="s">
         <v>100</v>
       </c>
@@ -21837,7 +21851,7 @@
         <v>0.1293</v>
       </c>
     </row>
-    <row r="53" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J53" t="s">
         <v>4</v>
       </c>
@@ -21878,7 +21892,7 @@
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="54" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J54" t="s">
         <v>4</v>
       </c>
@@ -21913,7 +21927,7 @@
         <v>15.079365079365079</v>
       </c>
     </row>
-    <row r="55" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J55" t="s">
         <v>4</v>
       </c>
@@ -21948,7 +21962,7 @@
         <v>27.642276422764226</v>
       </c>
     </row>
-    <row r="56" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J56" t="s">
         <v>4</v>
       </c>
@@ -21986,7 +22000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J57" t="s">
         <v>4</v>
       </c>
@@ -22033,7 +22047,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J58" t="s">
         <v>4</v>
       </c>
@@ -22080,7 +22094,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="59" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J59" t="s">
         <v>4</v>
       </c>
@@ -22127,7 +22141,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="60" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J60" t="s">
         <v>4</v>
       </c>
@@ -22168,7 +22182,7 @@
         <v>1.3550135501355016</v>
       </c>
     </row>
-    <row r="61" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J61" t="s">
         <v>4</v>
       </c>
@@ -22203,7 +22217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J62" t="s">
         <v>4</v>
       </c>
@@ -22250,7 +22264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J63" t="s">
         <v>4</v>
       </c>
@@ -22297,7 +22311,7 @@
         <v>0.1421</v>
       </c>
     </row>
-    <row r="64" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:30" x14ac:dyDescent="0.3">
       <c r="J64" t="s">
         <v>4</v>
       </c>
@@ -22338,7 +22352,7 @@
         <v>0.3992</v>
       </c>
     </row>
-    <row r="65" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J65" t="s">
         <v>4</v>
       </c>
@@ -22379,7 +22393,7 @@
         <v>0.28089999999999998</v>
       </c>
     </row>
-    <row r="66" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J66" t="s">
         <v>4</v>
       </c>
@@ -22420,7 +22434,7 @@
         <v>2.8460000000000001</v>
       </c>
     </row>
-    <row r="67" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J67" t="s">
         <v>4</v>
       </c>
@@ -22449,7 +22463,7 @@
         <v>39.620596205962059</v>
       </c>
     </row>
-    <row r="68" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J68" t="s">
         <v>4</v>
       </c>
@@ -22478,7 +22492,7 @@
         <v>35.581395348837205</v>
       </c>
     </row>
-    <row r="69" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J69" t="s">
         <v>4</v>
       </c>
@@ -22507,7 +22521,7 @@
         <v>39.666666666666671</v>
       </c>
     </row>
-    <row r="70" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J70" t="s">
         <v>4</v>
       </c>
@@ -22536,7 +22550,7 @@
         <v>41.924119241192415</v>
       </c>
     </row>
-    <row r="71" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J71" t="s">
         <v>0</v>
       </c>
@@ -22565,7 +22579,7 @@
         <v>65.638888888888886</v>
       </c>
     </row>
-    <row r="72" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J72" t="s">
         <v>0</v>
       </c>
@@ -22594,7 +22608,7 @@
         <v>43.927648578811365</v>
       </c>
     </row>
-    <row r="73" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J73" t="s">
         <v>0</v>
       </c>
@@ -22623,12 +22637,12 @@
         <v>54.132791327913282</v>
       </c>
     </row>
-    <row r="77" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:29" x14ac:dyDescent="0.3">
       <c r="J77" s="16">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="78" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:29" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>119</v>
       </c>
@@ -22654,7 +22668,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:29" x14ac:dyDescent="0.3">
       <c r="I79" t="s">
         <v>113</v>
       </c>
@@ -22685,7 +22699,7 @@
         <v>50.330364217907004</v>
       </c>
     </row>
-    <row r="80" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:29" x14ac:dyDescent="0.3">
       <c r="I80" t="s">
         <v>127</v>
       </c>
@@ -22716,7 +22730,7 @@
         <v>55.029334992962333</v>
       </c>
     </row>
-    <row r="81" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I81" t="s">
         <v>116</v>
       </c>
@@ -22747,7 +22761,7 @@
         <v>54.64296035631714</v>
       </c>
     </row>
-    <row r="82" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I82" t="s">
         <v>114</v>
       </c>
@@ -22778,7 +22792,7 @@
         <v>45.123151600738737</v>
       </c>
     </row>
-    <row r="83" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I83" t="s">
         <v>117</v>
       </c>
@@ -22809,7 +22823,7 @@
         <v>50.960865483807851</v>
       </c>
     </row>
-    <row r="84" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I84" t="s">
         <v>115</v>
       </c>
@@ -22840,7 +22854,7 @@
         <v>39.520285813323248</v>
       </c>
     </row>
-    <row r="85" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I85" t="s">
         <v>118</v>
       </c>
@@ -22871,7 +22885,7 @@
         <v>41.52896776825785</v>
       </c>
     </row>
-    <row r="89" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I89" t="s">
         <v>119</v>
       </c>
@@ -22891,7 +22905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I90" t="s">
         <v>113</v>
       </c>
@@ -22923,7 +22937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I91" t="s">
         <v>127</v>
       </c>
@@ -22943,7 +22957,7 @@
         <v>32.122854561878945</v>
       </c>
     </row>
-    <row r="92" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I92" t="s">
         <v>116</v>
       </c>
@@ -22975,7 +22989,7 @@
         <v>50.330364217907004</v>
       </c>
     </row>
-    <row r="93" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I93" t="s">
         <v>114</v>
       </c>
@@ -23007,7 +23021,7 @@
         <v>55.029334992962333</v>
       </c>
     </row>
-    <row r="94" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>117</v>
       </c>
@@ -23039,7 +23053,7 @@
         <v>54.64296035631714</v>
       </c>
     </row>
-    <row r="95" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>115</v>
       </c>
@@ -23071,7 +23085,7 @@
         <v>45.123151600738737</v>
       </c>
     </row>
-    <row r="96" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>118</v>
       </c>
@@ -23103,7 +23117,7 @@
         <v>50.960865483807851</v>
       </c>
     </row>
-    <row r="97" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:23" x14ac:dyDescent="0.3">
       <c r="S97" t="s">
         <v>115</v>
       </c>
@@ -23117,7 +23131,7 @@
         <v>39.520285813323248</v>
       </c>
     </row>
-    <row r="98" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:23" x14ac:dyDescent="0.3">
       <c r="S98" t="s">
         <v>118</v>
       </c>
@@ -23131,7 +23145,7 @@
         <v>41.52896776825785</v>
       </c>
     </row>
-    <row r="101" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U101" s="20" t="s">
         <v>4</v>
       </c>
@@ -23139,22 +23153,22 @@
         <v>5.3847022662625266</v>
       </c>
     </row>
-    <row r="102" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U102" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U103" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U104" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U105" s="20" t="s">
         <v>0</v>
       </c>
@@ -23162,12 +23176,12 @@
         <v>11.106383286657323</v>
       </c>
     </row>
-    <row r="106" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U106" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U107" s="20" t="s">
         <v>100</v>
       </c>
@@ -23175,7 +23189,7 @@
         <v>6.0604043040456208</v>
       </c>
     </row>
-    <row r="108" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:23" x14ac:dyDescent="0.3">
       <c r="K108" t="s">
         <v>132</v>
       </c>
@@ -23186,17 +23200,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U109" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:23" x14ac:dyDescent="0.3">
       <c r="U110" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M118" t="s">
         <v>132</v>
       </c>
